--- a/Matlab/Project Timeline.xlsx
+++ b/Matlab/Project Timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/jefo6893_colorado_edu/Documents/Projects/Annie Thompson/Matlab/ME1 - Kinetically guided, ratiometric tuning of fatty acid biosynthesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/jefo6893_colorado_edu/Documents/Projects/Annie Thompson/Git Repository/Matlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75319BF0-BFD0-584D-8D56-A62B1235F80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="8_{75319BF0-BFD0-584D-8D56-A62B1235F80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B4F5009-F109-8A4A-BCB2-50D0D32D2CFB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{D460F1A5-C0E8-864A-9EC7-AAE9E9678062}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25220" windowHeight="16100" xr2:uid="{D460F1A5-C0E8-864A-9EC7-AAE9E9678062}"/>
   </bookViews>
   <sheets>
     <sheet name="Fox" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
   <si>
     <t>Category</t>
   </si>
@@ -214,6 +214,27 @@
   </si>
   <si>
     <t>Slurm</t>
+  </si>
+  <si>
+    <t>3: MD</t>
+  </si>
+  <si>
+    <t>3A: Software download tutorials</t>
+  </si>
+  <si>
+    <t>3B: Read papers (Anika)</t>
+  </si>
+  <si>
+    <t>3C: Work with Anika on current project</t>
+  </si>
+  <si>
+    <t>3D: New Project</t>
+  </si>
+  <si>
+    <t>MD tutorials done, next steps: learn simultations, learn analysis</t>
+  </si>
+  <si>
+    <t>Figure out differences between model and experiment</t>
   </si>
 </sst>
 </file>
@@ -244,9 +265,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -272,7 +291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="70">
+  <borders count="93">
     <border>
       <left/>
       <right/>
@@ -495,21 +514,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -578,10 +582,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
         <color indexed="64"/>
       </top>
       <bottom style="thick">
@@ -597,7 +601,7 @@
       <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -607,7 +611,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thick">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -623,7 +627,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -633,7 +637,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -649,7 +653,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -659,12 +663,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -672,10 +674,12 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -683,7 +687,18 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
         <color indexed="64"/>
       </top>
       <bottom style="thick">
@@ -697,7 +712,9 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -705,45 +722,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thick">
         <color indexed="64"/>
@@ -865,21 +843,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color theme="4"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -994,21 +957,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color theme="4"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thick">
         <color theme="4"/>
@@ -1104,19 +1052,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="4"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1201,70 +1136,397 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1283,17 +1545,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1307,348 +1572,518 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1665,9 +2100,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1705,7 +2140,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1811,7 +2246,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1953,7 +2388,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1961,875 +2396,1018 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055938A9-96C9-E447-83D3-A2A6EB8FF9B5}">
-  <dimension ref="A1:Y46"/>
+  <dimension ref="A1:Y43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="109"/>
-    <col min="2" max="2" width="20.83203125" style="110" customWidth="1"/>
-    <col min="3" max="3" width="40.83203125" style="111" customWidth="1"/>
-    <col min="4" max="4" width="74.1640625" style="112" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="109"/>
-    <col min="7" max="24" width="2.83203125" style="109" customWidth="1"/>
-    <col min="25" max="16384" width="10.83203125" style="109"/>
+    <col min="1" max="1" width="10.83203125" style="57"/>
+    <col min="2" max="2" width="20.83203125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="40.83203125" style="59" customWidth="1"/>
+    <col min="4" max="4" width="77.5" style="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="57"/>
+    <col min="7" max="24" width="2.83203125" style="57" customWidth="1"/>
+    <col min="25" max="16384" width="10.83203125" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="120"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
     </row>
     <row r="2" spans="1:25" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="118"/>
+      <c r="A2" s="64"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="141" t="s">
+      <c r="G2" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="132" t="s">
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="132" t="s">
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="132" t="s">
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="132"/>
-      <c r="V2" s="132"/>
-      <c r="W2" s="132"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="119"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="65"/>
     </row>
     <row r="3" spans="1:25" ht="19" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118"/>
-      <c r="B3" s="138" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="119"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="65"/>
     </row>
     <row r="4" spans="1:25" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118"/>
-      <c r="B4" s="138"/>
-      <c r="C4" s="57" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="40">
-        <v>45306</v>
-      </c>
-      <c r="F4" s="51" t="s">
+      <c r="E4" s="23">
+        <v>45313</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="123"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="121"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="124"/>
+      <c r="U4" s="120"/>
+      <c r="V4" s="121"/>
+      <c r="W4" s="120"/>
+      <c r="X4" s="125"/>
+      <c r="Y4" s="65"/>
+    </row>
+    <row r="5" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="64"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="24">
+        <v>45327</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="102"/>
+      <c r="U5" s="98"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="98"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="65"/>
+    </row>
+    <row r="6" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="64"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="25">
+        <v>45327</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="128"/>
+      <c r="T6" s="130"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="127"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="131"/>
+      <c r="Y6" s="65"/>
+    </row>
+    <row r="7" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="64"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="148" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="149">
+        <v>45362</v>
+      </c>
+      <c r="F7" s="150" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="151"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="189"/>
+      <c r="M7" s="151"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="153"/>
+      <c r="P7" s="189"/>
+      <c r="Q7" s="154"/>
+      <c r="R7" s="155"/>
+      <c r="S7" s="156"/>
+      <c r="T7" s="157"/>
+      <c r="U7" s="154"/>
+      <c r="V7" s="155"/>
+      <c r="W7" s="154"/>
+      <c r="X7" s="158"/>
+      <c r="Y7" s="65"/>
+    </row>
+    <row r="8" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="64"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="26">
+        <v>45404</v>
+      </c>
+      <c r="F8" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="119"/>
-    </row>
-    <row r="5" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118"/>
-      <c r="B5" s="138"/>
-      <c r="C5" s="135" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="41">
-        <v>45306</v>
-      </c>
-      <c r="F5" s="52" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="135"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="104"/>
+      <c r="X8" s="109"/>
+      <c r="Y8" s="65"/>
+    </row>
+    <row r="9" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="64"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="24">
+        <v>45334</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="98"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="100"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="103"/>
+      <c r="Y9" s="65"/>
+    </row>
+    <row r="10" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="64"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="25">
+        <v>45404</v>
+      </c>
+      <c r="F10" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="99"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="119"/>
-    </row>
-    <row r="6" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118"/>
-      <c r="B6" s="138"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="42">
-        <v>45306</v>
-      </c>
-      <c r="F6" s="50" t="s">
+      <c r="G10" s="126"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="132"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="138"/>
+      <c r="S10" s="139"/>
+      <c r="T10" s="140"/>
+      <c r="U10" s="141"/>
+      <c r="V10" s="138"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="131"/>
+      <c r="Y10" s="65"/>
+    </row>
+    <row r="11" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="64"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="25">
+        <v>45404</v>
+      </c>
+      <c r="F11" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="78"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="119"/>
-    </row>
-    <row r="7" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="118"/>
-      <c r="B7" s="138"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="43">
-        <v>45306</v>
-      </c>
-      <c r="F7" s="53" t="s">
+      <c r="G11" s="126"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="138"/>
+      <c r="S11" s="139"/>
+      <c r="T11" s="140"/>
+      <c r="U11" s="141"/>
+      <c r="V11" s="138"/>
+      <c r="W11" s="126"/>
+      <c r="X11" s="131"/>
+      <c r="Y11" s="65"/>
+    </row>
+    <row r="12" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="64"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="25">
+        <v>45404</v>
+      </c>
+      <c r="F12" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="101"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="119"/>
-    </row>
-    <row r="8" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="118"/>
-      <c r="B8" s="138"/>
-      <c r="C8" s="135" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="41">
-        <v>45320</v>
-      </c>
-      <c r="F8" s="52" t="s">
+      <c r="G12" s="126"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="133"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="138"/>
+      <c r="S12" s="139"/>
+      <c r="T12" s="140"/>
+      <c r="U12" s="141"/>
+      <c r="V12" s="138"/>
+      <c r="W12" s="126"/>
+      <c r="X12" s="131"/>
+      <c r="Y12" s="65"/>
+    </row>
+    <row r="13" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="64"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="26">
+        <v>45404</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="104"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="142"/>
+      <c r="S13" s="143"/>
+      <c r="T13" s="144"/>
+      <c r="U13" s="145"/>
+      <c r="V13" s="142"/>
+      <c r="W13" s="104"/>
+      <c r="X13" s="109"/>
+      <c r="Y13" s="65"/>
+    </row>
+    <row r="14" spans="1:25" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="64"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="65"/>
+    </row>
+    <row r="15" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="64"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="65"/>
+    </row>
+    <row r="16" spans="1:25" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="64"/>
+      <c r="B16" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="29">
+        <v>45362</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="99"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="119"/>
-    </row>
-    <row r="9" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="118"/>
-      <c r="B9" s="138"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="42">
-        <v>45320</v>
-      </c>
-      <c r="F9" s="50" t="s">
+      <c r="G16" s="92"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="96"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="134"/>
+      <c r="X16" s="147"/>
+      <c r="Y16" s="65"/>
+    </row>
+    <row r="17" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="64"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="24">
+        <v>45376</v>
+      </c>
+      <c r="F17" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="100"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="78"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="119"/>
-    </row>
-    <row r="10" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="118"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="42">
-        <v>45320</v>
-      </c>
-      <c r="F10" s="50" t="s">
+      <c r="G17" s="98"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="99"/>
+      <c r="S17" s="100"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="99"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="136"/>
+      <c r="Y17" s="65"/>
+    </row>
+    <row r="18" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="64"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="26">
+        <v>45390</v>
+      </c>
+      <c r="F18" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="100"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="119"/>
-    </row>
-    <row r="11" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="118"/>
-      <c r="B11" s="138"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="42">
-        <v>45320</v>
-      </c>
-      <c r="F11" s="50" t="s">
+      <c r="G18" s="104"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="105"/>
+      <c r="S18" s="106"/>
+      <c r="T18" s="108"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="105"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="137"/>
+      <c r="Y18" s="65"/>
+    </row>
+    <row r="19" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="64"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="30">
+        <v>45390</v>
+      </c>
+      <c r="F19" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="100"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="119"/>
-    </row>
-    <row r="12" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="118"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="43">
-        <v>45320</v>
-      </c>
-      <c r="F12" s="53" t="s">
+      <c r="G19" s="110"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="113"/>
+      <c r="Q19" s="110"/>
+      <c r="R19" s="111"/>
+      <c r="S19" s="112"/>
+      <c r="T19" s="114"/>
+      <c r="U19" s="110"/>
+      <c r="V19" s="111"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="65"/>
+    </row>
+    <row r="20" spans="1:25" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="64"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="24">
+        <v>45404</v>
+      </c>
+      <c r="F20" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="101"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="119"/>
-    </row>
-    <row r="13" spans="1:25" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="118"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="135" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="102"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="119"/>
-    </row>
-    <row r="14" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="118"/>
-      <c r="B14" s="138"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="103"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="119"/>
-    </row>
-    <row r="15" spans="1:25" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="118"/>
-      <c r="B15" s="138" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="46">
-        <v>45334</v>
-      </c>
-      <c r="F15" s="39" t="s">
+      <c r="G20" s="98"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="98"/>
+      <c r="R20" s="99"/>
+      <c r="S20" s="100"/>
+      <c r="T20" s="102"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="99"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="136"/>
+      <c r="Y20" s="65"/>
+    </row>
+    <row r="21" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="64"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="26">
+        <v>45404</v>
+      </c>
+      <c r="F21" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="97"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="119"/>
-    </row>
-    <row r="16" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="118"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="139" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="41">
-        <v>45334</v>
-      </c>
-      <c r="F16" s="52" t="s">
+      <c r="G21" s="104"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="104"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="106"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="105"/>
+      <c r="S21" s="106"/>
+      <c r="T21" s="108"/>
+      <c r="U21" s="104"/>
+      <c r="V21" s="105"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="137"/>
+      <c r="Y21" s="65"/>
+    </row>
+    <row r="22" spans="1:25" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="64"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="99"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="119"/>
-    </row>
-    <row r="17" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="118"/>
-      <c r="B17" s="138"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="43">
-        <v>45334</v>
-      </c>
-      <c r="F17" s="53" t="s">
+      <c r="G22" s="115"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="117"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="115"/>
+      <c r="R22" s="116"/>
+      <c r="S22" s="117"/>
+      <c r="T22" s="119"/>
+      <c r="U22" s="115"/>
+      <c r="V22" s="116"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="65"/>
+    </row>
+    <row r="23" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="64"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="101"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="119"/>
-    </row>
-    <row r="18" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="118"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="47">
-        <v>45334</v>
-      </c>
-      <c r="F18" s="44" t="s">
+      <c r="G23" s="110"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="110"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="113"/>
+      <c r="Q23" s="110"/>
+      <c r="R23" s="111"/>
+      <c r="S23" s="112"/>
+      <c r="T23" s="114"/>
+      <c r="U23" s="110"/>
+      <c r="V23" s="111"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="65"/>
+    </row>
+    <row r="24" spans="1:25" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="64"/>
+      <c r="B24" s="159" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="175" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="176"/>
+      <c r="E24" s="177">
+        <v>45299</v>
+      </c>
+      <c r="F24" s="178" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="179"/>
+      <c r="H24" s="180"/>
+      <c r="I24" s="180"/>
+      <c r="J24" s="180"/>
+      <c r="K24" s="181"/>
+      <c r="L24" s="179"/>
+      <c r="M24" s="180"/>
+      <c r="N24" s="180"/>
+      <c r="O24" s="181"/>
+      <c r="P24" s="179"/>
+      <c r="Q24" s="180"/>
+      <c r="R24" s="180"/>
+      <c r="S24" s="181"/>
+      <c r="T24" s="179"/>
+      <c r="U24" s="180"/>
+      <c r="V24" s="180"/>
+      <c r="W24" s="180"/>
+      <c r="X24" s="97"/>
+      <c r="Y24" s="65"/>
+    </row>
+    <row r="25" spans="1:25" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="64"/>
+      <c r="B25" s="159"/>
+      <c r="C25" s="166" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="166"/>
+      <c r="E25" s="166"/>
+      <c r="F25" s="167" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="168"/>
+      <c r="H25" s="169"/>
+      <c r="I25" s="169"/>
+      <c r="J25" s="169"/>
+      <c r="K25" s="170"/>
+      <c r="L25" s="168"/>
+      <c r="M25" s="169"/>
+      <c r="N25" s="169"/>
+      <c r="O25" s="170"/>
+      <c r="P25" s="168"/>
+      <c r="Q25" s="169"/>
+      <c r="R25" s="169"/>
+      <c r="S25" s="170"/>
+      <c r="T25" s="168"/>
+      <c r="U25" s="169"/>
+      <c r="V25" s="169"/>
+      <c r="W25" s="169"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="65"/>
+    </row>
+    <row r="26" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="64"/>
+      <c r="B26" s="159"/>
+      <c r="C26" s="171" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="171" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="171"/>
+      <c r="F26" s="162" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="163"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="165"/>
+      <c r="L26" s="163"/>
+      <c r="M26" s="164"/>
+      <c r="N26" s="164"/>
+      <c r="O26" s="165"/>
+      <c r="P26" s="163"/>
+      <c r="Q26" s="172"/>
+      <c r="R26" s="172"/>
+      <c r="S26" s="173"/>
+      <c r="T26" s="174"/>
+      <c r="U26" s="172"/>
+      <c r="V26" s="172"/>
+      <c r="W26" s="172"/>
+      <c r="X26" s="146"/>
+      <c r="Y26" s="65"/>
+    </row>
+    <row r="27" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="64"/>
+      <c r="B27" s="159"/>
+      <c r="C27" s="182" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="182"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="184" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="104"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="119"/>
-    </row>
-    <row r="19" spans="1:25" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="118"/>
-      <c r="B19" s="138"/>
-      <c r="C19" s="139" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="41">
-        <v>45362</v>
-      </c>
-      <c r="F19" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="99"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="119"/>
-    </row>
-    <row r="20" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="118"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="43">
-        <v>45362</v>
-      </c>
-      <c r="F20" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="101"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="119"/>
-    </row>
-    <row r="21" spans="1:25" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="118"/>
-      <c r="B21" s="138"/>
-      <c r="C21" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="107"/>
-      <c r="S21" s="92"/>
-      <c r="T21" s="105"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="107"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="119"/>
-    </row>
-    <row r="22" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="118"/>
-      <c r="B22" s="138"/>
-      <c r="C22" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="108"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="106"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="108"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="119"/>
-    </row>
-    <row r="23" spans="1:25" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="124"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="127"/>
-      <c r="K23" s="127"/>
-      <c r="L23" s="127"/>
-      <c r="M23" s="127"/>
-      <c r="N23" s="127"/>
-      <c r="O23" s="127"/>
-      <c r="P23" s="127"/>
-      <c r="Q23" s="127"/>
-      <c r="R23" s="127"/>
-      <c r="S23" s="127"/>
-      <c r="T23" s="127"/>
-      <c r="U23" s="127"/>
-      <c r="V23" s="127"/>
-      <c r="W23" s="127"/>
-      <c r="X23" s="127"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C24" s="113"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C26" s="114"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C27" s="114"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C28" s="115"/>
+      <c r="G27" s="185"/>
+      <c r="H27" s="186"/>
+      <c r="I27" s="186"/>
+      <c r="J27" s="186"/>
+      <c r="K27" s="187"/>
+      <c r="L27" s="185"/>
+      <c r="M27" s="186"/>
+      <c r="N27" s="186"/>
+      <c r="O27" s="187"/>
+      <c r="P27" s="185"/>
+      <c r="Q27" s="186"/>
+      <c r="R27" s="186"/>
+      <c r="S27" s="187"/>
+      <c r="T27" s="185"/>
+      <c r="U27" s="186"/>
+      <c r="V27" s="186"/>
+      <c r="W27" s="186"/>
+      <c r="X27" s="188"/>
+      <c r="Y27" s="65"/>
+    </row>
+    <row r="28" spans="1:25" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="70"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="72"/>
+      <c r="X28" s="72"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C29" s="116"/>
+      <c r="C29" s="62"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C30" s="114"/>
+      <c r="C30" s="61"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C31" s="116"/>
+      <c r="C31" s="63"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C32" s="116"/>
+      <c r="C32" s="63"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="114"/>
+      <c r="C33" s="63"/>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="117"/>
+      <c r="C34" s="61"/>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="117"/>
+      <c r="C35" s="63"/>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="117"/>
+      <c r="C36" s="63"/>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="114"/>
+      <c r="C37" s="57"/>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="117"/>
+      <c r="C38" s="57"/>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="117"/>
+      <c r="C39" s="57"/>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="109"/>
+      <c r="C40" s="57"/>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="109"/>
+      <c r="C41" s="57"/>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="109"/>
+      <c r="C42" s="57"/>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="109"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="109"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="109"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="109"/>
+      <c r="C43" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="B3:B14"/>
-    <mergeCell ref="C13:C14"/>
+  <mergeCells count="12">
+    <mergeCell ref="B24:B27"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="P2:S2"/>
     <mergeCell ref="T2:X2"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2854,365 +3432,365 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="128" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="128" t="s">
+      <c r="D1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="128" t="s">
+      <c r="E1" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="145" t="s">
+      <c r="F1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145" t="s">
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
-      <c r="O1" s="145" t="s">
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="145" t="s">
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="130">
+      <c r="D2" s="75">
         <v>45313</v>
       </c>
-      <c r="E2" s="129" t="s">
+      <c r="E2" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="145"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="129" t="s">
+      <c r="A3" s="90"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="130">
+      <c r="D3" s="75">
         <v>45313</v>
       </c>
-      <c r="E3" s="129" t="s">
+      <c r="E3" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="128"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128"/>
-      <c r="W3" s="128"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="145"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="129" t="s">
+      <c r="A4" s="90"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="130">
+      <c r="D4" s="75">
         <v>45313</v>
       </c>
-      <c r="E4" s="129" t="s">
+      <c r="E4" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="145"/>
-      <c r="B5" s="146"/>
-      <c r="C5" s="129" t="s">
+      <c r="A5" s="90"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="130">
+      <c r="D5" s="75">
         <v>45313</v>
       </c>
-      <c r="E5" s="129" t="s">
+      <c r="E5" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="128"/>
-      <c r="S5" s="128"/>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="128"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="145"/>
-      <c r="B6" s="146" t="s">
+      <c r="A6" s="90"/>
+      <c r="B6" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="129" t="s">
+      <c r="C6" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="130">
+      <c r="D6" s="75">
         <v>45313</v>
       </c>
-      <c r="E6" s="129" t="s">
+      <c r="E6" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="128"/>
-      <c r="M6" s="128"/>
-      <c r="N6" s="128"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="128"/>
-      <c r="S6" s="128"/>
-      <c r="T6" s="128"/>
-      <c r="U6" s="128"/>
-      <c r="V6" s="128"/>
-      <c r="W6" s="128"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="145"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="129" t="s">
+      <c r="A7" s="90"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="130">
+      <c r="D7" s="75">
         <v>45313</v>
       </c>
-      <c r="E7" s="129" t="s">
+      <c r="E7" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="128"/>
-      <c r="P7" s="128"/>
-      <c r="Q7" s="128"/>
-      <c r="R7" s="128"/>
-      <c r="S7" s="128"/>
-      <c r="T7" s="128"/>
-      <c r="U7" s="128"/>
-      <c r="V7" s="128"/>
-      <c r="W7" s="128"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="145"/>
-      <c r="B8" s="146" t="s">
+      <c r="A8" s="90"/>
+      <c r="B8" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="129" t="s">
+      <c r="C8" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="130">
+      <c r="D8" s="75">
         <v>45313</v>
       </c>
-      <c r="E8" s="129" t="s">
+      <c r="E8" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="128"/>
-      <c r="N8" s="128"/>
-      <c r="O8" s="128"/>
-      <c r="P8" s="128"/>
-      <c r="Q8" s="128"/>
-      <c r="R8" s="128"/>
-      <c r="S8" s="128"/>
-      <c r="T8" s="128"/>
-      <c r="U8" s="128"/>
-      <c r="V8" s="128"/>
-      <c r="W8" s="128"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="73"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="145"/>
-      <c r="B9" s="146"/>
-      <c r="C9" s="129" t="s">
+      <c r="A9" s="90"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="130">
+      <c r="D9" s="75">
         <v>45313</v>
       </c>
-      <c r="E9" s="129" t="s">
+      <c r="E9" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="128"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="128"/>
-      <c r="P9" s="128"/>
-      <c r="Q9" s="128"/>
-      <c r="R9" s="128"/>
-      <c r="S9" s="128"/>
-      <c r="T9" s="128"/>
-      <c r="U9" s="128"/>
-      <c r="V9" s="128"/>
-      <c r="W9" s="128"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="145"/>
-      <c r="B10" s="146"/>
-      <c r="C10" s="129" t="s">
+      <c r="A10" s="90"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="130">
+      <c r="D10" s="75">
         <v>45313</v>
       </c>
-      <c r="E10" s="129" t="s">
+      <c r="E10" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="128"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="128"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="128"/>
-      <c r="R10" s="128"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="145"/>
-      <c r="B11" s="146"/>
-      <c r="C11" s="129" t="s">
+      <c r="A11" s="90"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="130">
+      <c r="D11" s="75">
         <v>45313</v>
       </c>
-      <c r="E11" s="129" t="s">
+      <c r="E11" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="128"/>
-      <c r="N11" s="128"/>
-      <c r="O11" s="128"/>
-      <c r="P11" s="128"/>
-      <c r="Q11" s="128"/>
-      <c r="R11" s="128"/>
-      <c r="S11" s="128"/>
-      <c r="T11" s="128"/>
-      <c r="U11" s="128"/>
-      <c r="V11" s="128"/>
-      <c r="W11" s="128"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="8">
